--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96207.65026403172</v>
+        <v>17694472.43645501</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>96207.65026403172</v>
+        <v>17694472.43645501</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80716.67563143226</v>
+        <v>10285025.32598463</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80716.67563143226</v>
+        <v>10285025.32598463</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608844589.645906</v>
+        <v>55242448.89674142</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12983.50277515083</v>
+        <v>1329348.278335613</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25011.49347781004</v>
+        <v>2512164.621702667</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37039.48418046921</v>
+        <v>3694980.965069723</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51349.61811228145</v>
+        <v>4509952.801942495</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64031.86004187091</v>
+        <v>5663380.135100857</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76470.51486555985</v>
+        <v>6783985.526194244</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89005.55775054963</v>
+        <v>7934074.427225407</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101498.422005772</v>
+        <v>9080856.590478785</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115538.0942700902</v>
+        <v>9934390.452329805</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127949.4809765657</v>
+        <v>11111324.84530717</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140180.6892902985</v>
+        <v>12256203.13680055</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>152411.8976040313</v>
+        <v>13401081.42829393</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>164643.1059177642</v>
+        <v>14545959.71978732</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>178557.16878584</v>
+        <v>15420659.48290024</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>198592.8553545414</v>
+        <v>15643541.84864068</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>235</v>
@@ -27052,13 +27052,13 @@
         <v>128</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>123</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,16 +27147,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>44</v>
